--- a/param_files/Calibration_parameters.xlsx
+++ b/param_files/Calibration_parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10810"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jross\repos\epi_model_HIV_TB\param_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chelseagreene/ws/github/epi_model_HIV_TB/param_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99C50BA9-F326-4AE2-9009-5D26A747E6C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7AE7BF-EEC8-224D-9F37-917D61F66604}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-36160" yWindow="4020" windowWidth="27300" windowHeight="18080" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Model_Matched_Parameters" sheetId="1" r:id="rId1"/>
@@ -30,19 +30,10 @@
     <definedName name="R_SET">'Set Ref'!$A$11:$B$13</definedName>
     <definedName name="TB_SET">'Set Ref'!$A$1:$B$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -116,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="369">
   <si>
     <t>Epidemiological data point (description)</t>
   </si>
@@ -1187,15 +1178,58 @@
   </si>
   <si>
     <t>Percentage of pop active TB female</t>
+  </si>
+  <si>
+    <t>http://www.statssa.gov.za/publications/P0302/P03022019.pdf</t>
+  </si>
+  <si>
+    <t>Birth rates in kwazulu natal in 2002</t>
+  </si>
+  <si>
+    <t>Total birth rates in 2002</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4220127/</t>
+  </si>
+  <si>
+    <t>Mortality Rate Infant</t>
+  </si>
+  <si>
+    <t>Mortality Rate 1-4 Years</t>
+  </si>
+  <si>
+    <t>Births from 2002 that survived infancy</t>
+  </si>
+  <si>
+    <t>Births from 2002 that survived past 4 years</t>
+  </si>
+  <si>
+    <t>Births from 2002 that survived past 14 years</t>
+  </si>
+  <si>
+    <t>Accounts for Moratlity Rate 5-14 years</t>
+  </si>
+  <si>
+    <t>PMID: 25377332</t>
+  </si>
+  <si>
+    <t>Birth rates 2002 that survived neonate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1277,6 +1311,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1331,26 +1373,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1365,68 +1408,73 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1723,31 +1771,31 @@
   <dimension ref="A1:O194"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="10" ySplit="1" topLeftCell="K23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="1" topLeftCell="K56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L37" sqref="L37"/>
+      <selection pane="bottomRight" activeCell="K58" sqref="K58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="69.33203125" style="11" customWidth="1"/>
     <col min="2" max="2" width="53" style="9" hidden="1" customWidth="1"/>
-    <col min="3" max="4" width="7.796875" style="9" hidden="1" customWidth="1"/>
+    <col min="3" max="4" width="7.83203125" style="9" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="9" hidden="1" customWidth="1"/>
     <col min="6" max="7" width="15" style="9" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="26" style="9" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="16.6640625" style="9" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="22.33203125" style="9" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="22.33203125" style="9" customWidth="1"/>
     <col min="11" max="11" width="20" style="9" customWidth="1"/>
-    <col min="12" max="12" width="17.796875" style="9" customWidth="1"/>
-    <col min="13" max="13" width="20.46484375" style="9" customWidth="1"/>
+    <col min="12" max="12" width="17.83203125" style="9" customWidth="1"/>
+    <col min="13" max="13" width="20.5" style="9" customWidth="1"/>
     <col min="14" max="14" width="10.6640625" style="9" customWidth="1"/>
     <col min="15" max="15" width="29" style="10" customWidth="1"/>
-    <col min="16" max="16384" width="8.796875" style="10"/>
+    <col min="16" max="16384" width="8.83203125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1794,7 +1842,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
         <v>15</v>
       </c>
@@ -1822,7 +1870,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
         <v>19</v>
       </c>
@@ -1850,7 +1898,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="57" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
         <v>20</v>
       </c>
@@ -1878,7 +1926,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="57" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
         <v>23</v>
       </c>
@@ -1906,7 +1954,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
         <v>24</v>
       </c>
@@ -1934,7 +1982,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
         <v>27</v>
       </c>
@@ -1962,7 +2010,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
         <v>28</v>
       </c>
@@ -1993,7 +2041,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
         <v>32</v>
       </c>
@@ -2025,7 +2073,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
         <v>33</v>
       </c>
@@ -2057,7 +2105,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
         <v>34</v>
       </c>
@@ -2089,7 +2137,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="57" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
         <v>35</v>
       </c>
@@ -2117,7 +2165,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
         <v>39</v>
       </c>
@@ -2139,7 +2187,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
         <v>41</v>
       </c>
@@ -2176,7 +2224,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="s">
         <v>45</v>
       </c>
@@ -2213,7 +2261,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="20" t="s">
         <v>46</v>
       </c>
@@ -2253,7 +2301,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="20" t="s">
         <v>49</v>
       </c>
@@ -2293,7 +2341,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="20" t="s">
         <v>50</v>
       </c>
@@ -2333,7 +2381,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="s">
         <v>51</v>
       </c>
@@ -2373,7 +2421,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="20" t="s">
         <v>52</v>
       </c>
@@ -2413,7 +2461,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="20" t="s">
         <v>53</v>
       </c>
@@ -2453,7 +2501,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A22" s="20" t="s">
         <v>54</v>
       </c>
@@ -2490,7 +2538,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A23" s="20" t="s">
         <v>55</v>
       </c>
@@ -2527,7 +2575,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A24" s="20" t="s">
         <v>56</v>
       </c>
@@ -2567,7 +2615,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A25" s="20" t="s">
         <v>58</v>
       </c>
@@ -2607,7 +2655,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="s">
         <v>59</v>
       </c>
@@ -2647,7 +2695,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A27" s="20" t="s">
         <v>60</v>
       </c>
@@ -2687,7 +2735,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A28" s="20" t="s">
         <v>61</v>
       </c>
@@ -2724,7 +2772,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
         <v>62</v>
       </c>
@@ -2761,7 +2809,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A30" s="20" t="s">
         <v>63</v>
       </c>
@@ -2798,7 +2846,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
         <v>64</v>
       </c>
@@ -2835,7 +2883,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
         <v>65</v>
       </c>
@@ -2872,7 +2920,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A33" s="20" t="s">
         <v>66</v>
       </c>
@@ -2909,7 +2957,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A34" s="20" t="s">
         <v>67</v>
       </c>
@@ -2946,7 +2994,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A35" s="20" t="s">
         <v>68</v>
       </c>
@@ -2983,7 +3031,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A36" s="20" t="s">
         <v>69</v>
       </c>
@@ -3020,7 +3068,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A37" s="20" t="s">
         <v>70</v>
       </c>
@@ -3057,7 +3105,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A38" s="20" t="s">
         <v>71</v>
       </c>
@@ -3094,7 +3142,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A39" s="20" t="s">
         <v>73</v>
       </c>
@@ -3131,7 +3179,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A40" s="20" t="s">
         <v>74</v>
       </c>
@@ -3171,7 +3219,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A41" s="20" t="s">
         <v>76</v>
       </c>
@@ -3211,7 +3259,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A42" s="20" t="s">
         <v>77</v>
       </c>
@@ -3251,7 +3299,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A43" s="20" t="s">
         <v>78</v>
       </c>
@@ -3291,7 +3339,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A44" s="20" t="s">
         <v>79</v>
       </c>
@@ -3331,7 +3379,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A45" s="20" t="s">
         <v>80</v>
       </c>
@@ -3371,7 +3419,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A46" s="20" t="s">
         <v>81</v>
       </c>
@@ -3411,7 +3459,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A47" s="20" t="s">
         <v>82</v>
       </c>
@@ -3451,7 +3499,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A48" s="20" t="s">
         <v>83</v>
       </c>
@@ -3488,7 +3536,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A49" s="20" t="s">
         <v>84</v>
       </c>
@@ -3525,7 +3573,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A50" s="20" t="s">
         <v>85</v>
       </c>
@@ -3562,7 +3610,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A51" s="20" t="s">
         <v>86</v>
       </c>
@@ -3599,7 +3647,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A52" s="20" t="s">
         <v>87</v>
       </c>
@@ -3636,7 +3684,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A53" s="20" t="s">
         <v>88</v>
       </c>
@@ -3673,7 +3721,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A54" s="20" t="s">
         <v>89</v>
       </c>
@@ -3710,7 +3758,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A55" s="20" t="s">
         <v>91</v>
       </c>
@@ -3747,7 +3795,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A56" s="20" t="s">
         <v>92</v>
       </c>
@@ -3784,7 +3832,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A57" s="20" t="s">
         <v>93</v>
       </c>
@@ -3821,7 +3869,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A58" s="20" t="s">
         <v>94</v>
       </c>
@@ -3858,7 +3906,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A59" s="20" t="s">
         <v>95</v>
       </c>
@@ -3895,7 +3943,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A60" s="20" t="s">
         <v>96</v>
       </c>
@@ -3932,7 +3980,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A61" s="20" t="s">
         <v>97</v>
       </c>
@@ -3969,7 +4017,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A62" s="20" t="s">
         <v>98</v>
       </c>
@@ -4006,7 +4054,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A63" s="20" t="s">
         <v>99</v>
       </c>
@@ -4043,7 +4091,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A64" s="20" t="s">
         <v>100</v>
       </c>
@@ -4080,7 +4128,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A65" s="20" t="s">
         <v>101</v>
       </c>
@@ -4117,7 +4165,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A66" s="20" t="s">
         <v>102</v>
       </c>
@@ -4154,7 +4202,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A67" s="20" t="s">
         <v>103</v>
       </c>
@@ -4191,7 +4239,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A68" s="20" t="s">
         <v>104</v>
       </c>
@@ -4228,7 +4276,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A69" s="20" t="s">
         <v>105</v>
       </c>
@@ -4265,7 +4313,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A70" s="20" t="s">
         <v>106</v>
       </c>
@@ -4302,7 +4350,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A71" s="20" t="s">
         <v>107</v>
       </c>
@@ -4339,7 +4387,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A72" s="20" t="s">
         <v>108</v>
       </c>
@@ -4376,7 +4424,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A73" s="20" t="s">
         <v>109</v>
       </c>
@@ -4413,7 +4461,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A74" s="20" t="s">
         <v>110</v>
       </c>
@@ -4450,7 +4498,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A75" s="20" t="s">
         <v>111</v>
       </c>
@@ -4487,7 +4535,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A76" s="20" t="s">
         <v>112</v>
       </c>
@@ -4524,7 +4572,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A77" s="20" t="s">
         <v>113</v>
       </c>
@@ -4561,7 +4609,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A78" s="20" t="s">
         <v>114</v>
       </c>
@@ -4598,7 +4646,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A79" s="20" t="s">
         <v>115</v>
       </c>
@@ -4635,7 +4683,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A80" s="20" t="s">
         <v>116</v>
       </c>
@@ -4672,7 +4720,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="81" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A81" s="20" t="s">
         <v>117</v>
       </c>
@@ -4709,7 +4757,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="82" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A82" s="20" t="s">
         <v>118</v>
       </c>
@@ -4746,7 +4794,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="83" spans="1:15" ht="63" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A83" s="20" t="s">
         <v>119</v>
       </c>
@@ -4783,7 +4831,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A84" s="20" t="s">
         <v>120</v>
       </c>
@@ -4820,7 +4868,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="85" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A85" s="20" t="s">
         <v>121</v>
       </c>
@@ -4857,7 +4905,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="86" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="20" t="s">
         <v>122</v>
       </c>
@@ -4882,7 +4930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="20" t="s">
         <v>122</v>
       </c>
@@ -4907,7 +4955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A88" s="20" t="s">
         <v>124</v>
       </c>
@@ -4938,7 +4986,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="89" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A89" s="20" t="s">
         <v>127</v>
       </c>
@@ -4969,7 +5017,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="90" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A90" s="20" t="s">
         <v>128</v>
       </c>
@@ -5000,7 +5048,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="91" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A91" s="20" t="s">
         <v>129</v>
       </c>
@@ -5031,7 +5079,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="92" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A92" s="20" t="s">
         <v>130</v>
       </c>
@@ -5062,7 +5110,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="93" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A93" s="20" t="s">
         <v>131</v>
       </c>
@@ -5093,7 +5141,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="94" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="20" t="s">
         <v>132</v>
       </c>
@@ -5120,7 +5168,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="95" spans="1:15" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="20" t="s">
         <v>136</v>
       </c>
@@ -5144,7 +5192,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="96" spans="1:15" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="20" t="s">
         <v>137</v>
       </c>
@@ -5168,7 +5216,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="97" spans="1:15" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="20" t="s">
         <v>138</v>
       </c>
@@ -5192,7 +5240,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="98" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A98" s="20" t="s">
         <v>139</v>
       </c>
@@ -5218,7 +5266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A99" s="20" t="s">
         <v>141</v>
       </c>
@@ -5244,7 +5292,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="100" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A100" s="20" t="s">
         <v>142</v>
       </c>
@@ -5270,7 +5318,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="101" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A101" s="20" t="s">
         <v>143</v>
       </c>
@@ -5296,7 +5344,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="102" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A102" s="22" t="s">
         <v>274</v>
       </c>
@@ -5320,7 +5368,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A103" s="20" t="s">
         <v>144</v>
       </c>
@@ -5352,7 +5400,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="104" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A104" s="20" t="s">
         <v>148</v>
       </c>
@@ -5384,7 +5432,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="105" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A105" s="20" t="s">
         <v>150</v>
       </c>
@@ -5417,7 +5465,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="106" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A106" s="20" t="s">
         <v>152</v>
       </c>
@@ -5450,7 +5498,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="107" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A107" s="20" t="s">
         <v>154</v>
       </c>
@@ -5482,7 +5530,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="108" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A108" s="20" t="s">
         <v>156</v>
       </c>
@@ -5511,7 +5559,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="109" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A109" s="20" t="s">
         <v>157</v>
       </c>
@@ -5541,7 +5589,7 @@
         <v>0.22000000000000003</v>
       </c>
     </row>
-    <row r="110" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A110" s="20" t="s">
         <v>158</v>
       </c>
@@ -5571,7 +5619,7 @@
         <v>0.44000000000000006</v>
       </c>
     </row>
-    <row r="111" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A111" s="20" t="s">
         <v>159</v>
       </c>
@@ -5600,7 +5648,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="112" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A112" s="20" t="s">
         <v>160</v>
       </c>
@@ -5629,7 +5677,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="113" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A113" s="20" t="s">
         <v>161</v>
       </c>
@@ -5658,7 +5706,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="114" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" s="20" t="s">
         <v>162</v>
       </c>
@@ -5687,7 +5735,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="115" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A115" s="20" t="s">
         <v>163</v>
       </c>
@@ -5721,7 +5769,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="116" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A116" s="20" t="s">
         <v>166</v>
       </c>
@@ -5756,7 +5804,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="117" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A117" s="20" t="s">
         <v>167</v>
       </c>
@@ -5791,7 +5839,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="118" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A118" s="20" t="s">
         <v>168</v>
       </c>
@@ -5826,7 +5874,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="119" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A119" s="20" t="s">
         <v>169</v>
       </c>
@@ -5861,7 +5909,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="120" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A120" s="20" t="s">
         <v>170</v>
       </c>
@@ -5896,7 +5944,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="121" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A121" s="20" t="s">
         <v>171</v>
       </c>
@@ -5931,7 +5979,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="122" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A122" s="20" t="s">
         <v>172</v>
       </c>
@@ -5966,7 +6014,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="123" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A123" s="20" t="s">
         <v>173</v>
       </c>
@@ -6001,7 +6049,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="124" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A124" s="20" t="s">
         <v>174</v>
       </c>
@@ -6036,7 +6084,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="125" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A125" s="20" t="s">
         <v>175</v>
       </c>
@@ -6071,7 +6119,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="126" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A126" s="20" t="s">
         <v>176</v>
       </c>
@@ -6106,7 +6154,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="127" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A127" s="20" t="s">
         <v>177</v>
       </c>
@@ -6141,7 +6189,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="128" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A128" s="31" t="s">
         <v>178</v>
       </c>
@@ -6176,7 +6224,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="129" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A129" s="20" t="s">
         <v>179</v>
       </c>
@@ -6211,7 +6259,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="130" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A130" s="20" t="s">
         <v>180</v>
       </c>
@@ -6246,7 +6294,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="131" spans="1:15" ht="57" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A131" s="20" t="s">
         <v>181</v>
       </c>
@@ -6281,7 +6329,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="132" spans="1:15" ht="57" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A132" s="20" t="s">
         <v>182</v>
       </c>
@@ -6316,7 +6364,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="133" spans="1:15" ht="57" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A133" s="20" t="s">
         <v>183</v>
       </c>
@@ -6351,7 +6399,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="134" spans="1:15" ht="57" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A134" s="20" t="s">
         <v>184</v>
       </c>
@@ -6386,7 +6434,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="135" spans="1:15" ht="57" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A135" s="20" t="s">
         <v>185</v>
       </c>
@@ -6421,7 +6469,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="136" spans="1:15" ht="57" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A136" s="20" t="s">
         <v>186</v>
       </c>
@@ -6456,7 +6504,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="137" spans="1:15" ht="57" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A137" s="20" t="s">
         <v>187</v>
       </c>
@@ -6491,7 +6539,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="138" spans="1:15" ht="57" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A138" s="20" t="s">
         <v>188</v>
       </c>
@@ -6526,7 +6574,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="139" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A139" s="20" t="s">
         <v>189</v>
       </c>
@@ -6561,7 +6609,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="140" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A140" s="20" t="s">
         <v>190</v>
       </c>
@@ -6596,7 +6644,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="141" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A141" s="20" t="s">
         <v>191</v>
       </c>
@@ -6631,7 +6679,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="142" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A142" s="20" t="s">
         <v>192</v>
       </c>
@@ -6666,7 +6714,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="143" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A143" s="20" t="s">
         <v>193</v>
       </c>
@@ -6701,7 +6749,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="144" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A144" s="20" t="s">
         <v>194</v>
       </c>
@@ -6736,7 +6784,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="145" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A145" s="20" t="s">
         <v>195</v>
       </c>
@@ -6771,7 +6819,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="146" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A146" s="20" t="s">
         <v>196</v>
       </c>
@@ -6806,7 +6854,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="147" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A147" s="20" t="s">
         <v>197</v>
       </c>
@@ -6841,7 +6889,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="148" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A148" s="20" t="s">
         <v>198</v>
       </c>
@@ -6876,7 +6924,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="149" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A149" s="20" t="s">
         <v>199</v>
       </c>
@@ -6911,7 +6959,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="150" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A150" s="20" t="s">
         <v>200</v>
       </c>
@@ -6946,7 +6994,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="151" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A151" s="20" t="s">
         <v>201</v>
       </c>
@@ -6981,7 +7029,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="152" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A152" s="20" t="s">
         <v>202</v>
       </c>
@@ -7016,7 +7064,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="153" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A153" s="20" t="s">
         <v>203</v>
       </c>
@@ -7051,7 +7099,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="154" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A154" s="20" t="s">
         <v>204</v>
       </c>
@@ -7086,7 +7134,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="155" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A155" s="20" t="s">
         <v>205</v>
       </c>
@@ -7121,7 +7169,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="156" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A156" s="20" t="s">
         <v>206</v>
       </c>
@@ -7156,7 +7204,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="157" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A157" s="20" t="s">
         <v>207</v>
       </c>
@@ -7191,7 +7239,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="158" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A158" s="20" t="s">
         <v>208</v>
       </c>
@@ -7226,7 +7274,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="159" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A159" s="20" t="s">
         <v>209</v>
       </c>
@@ -7261,7 +7309,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="160" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A160" s="20" t="s">
         <v>210</v>
       </c>
@@ -7296,7 +7344,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="161" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A161" s="20" t="s">
         <v>211</v>
       </c>
@@ -7331,7 +7379,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="162" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A162" s="20" t="s">
         <v>212</v>
       </c>
@@ -7366,7 +7414,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="163" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A163" s="20" t="s">
         <v>213</v>
       </c>
@@ -7401,7 +7449,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="164" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A164" s="20" t="s">
         <v>214</v>
       </c>
@@ -7436,7 +7484,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="165" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A165" s="20" t="s">
         <v>215</v>
       </c>
@@ -7471,7 +7519,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="166" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A166" s="20" t="s">
         <v>216</v>
       </c>
@@ -7506,7 +7554,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="167" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A167" s="20" t="s">
         <v>217</v>
       </c>
@@ -7541,7 +7589,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="168" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A168" s="20" t="s">
         <v>218</v>
       </c>
@@ -7576,7 +7624,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="169" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A169" s="20" t="s">
         <v>219</v>
       </c>
@@ -7611,7 +7659,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="170" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A170" s="20" t="s">
         <v>220</v>
       </c>
@@ -7646,7 +7694,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="171" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A171" s="20" t="s">
         <v>221</v>
       </c>
@@ -7681,7 +7729,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="172" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A172" s="20" t="s">
         <v>222</v>
       </c>
@@ -7716,7 +7764,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="173" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A173" s="20" t="s">
         <v>223</v>
       </c>
@@ -7751,7 +7799,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="174" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A174" s="20" t="s">
         <v>224</v>
       </c>
@@ -7786,7 +7834,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="175" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A175" s="20" t="s">
         <v>225</v>
       </c>
@@ -7821,7 +7869,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="176" spans="1:15" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A176" s="20" t="s">
         <v>226</v>
       </c>
@@ -7856,7 +7904,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="177" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A177" s="20" t="s">
         <v>227</v>
       </c>
@@ -7891,7 +7939,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="178" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A178" s="20" t="s">
         <v>228</v>
       </c>
@@ -7926,7 +7974,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="179" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A179" s="20" t="s">
         <v>229</v>
       </c>
@@ -7953,11 +8001,9 @@
         <f t="shared" si="15"/>
         <v>rho_1,1,1</v>
       </c>
-      <c r="K179" s="23">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="180" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+      <c r="K179" s="23"/>
+    </row>
+    <row r="180" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A180" s="20" t="s">
         <v>229</v>
       </c>
@@ -7984,11 +8030,9 @@
         <f t="shared" si="15"/>
         <v>rho_3,1,1</v>
       </c>
-      <c r="K180" s="23">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="181" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+      <c r="K180" s="23"/>
+    </row>
+    <row r="181" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A181" s="20" t="s">
         <v>229</v>
       </c>
@@ -8015,11 +8059,9 @@
         <f t="shared" si="15"/>
         <v>rho_4,1,1</v>
       </c>
-      <c r="K181" s="23">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="182" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+      <c r="K181" s="23"/>
+    </row>
+    <row r="182" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A182" s="20" t="s">
         <v>229</v>
       </c>
@@ -8046,11 +8088,9 @@
         <f t="shared" si="15"/>
         <v>rho_6,1,1</v>
       </c>
-      <c r="K182" s="23">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="183" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+      <c r="K182" s="23"/>
+    </row>
+    <row r="183" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A183" s="20" t="s">
         <v>231</v>
       </c>
@@ -8077,12 +8117,9 @@
         <f t="shared" si="15"/>
         <v>rho_1,2,1</v>
       </c>
-      <c r="K183" s="23">
-        <f>K179*0.01</f>
-        <v>2.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="184" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+      <c r="K183" s="23"/>
+    </row>
+    <row r="184" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A184" s="20" t="s">
         <v>231</v>
       </c>
@@ -8109,12 +8146,9 @@
         <f t="shared" si="15"/>
         <v>rho_3,2,1</v>
       </c>
-      <c r="K184" s="23">
-        <f t="shared" ref="K184:K186" si="19">K180*0.01</f>
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="185" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+      <c r="K184" s="23"/>
+    </row>
+    <row r="185" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A185" s="20" t="s">
         <v>231</v>
       </c>
@@ -8141,12 +8175,9 @@
         <f t="shared" si="15"/>
         <v>rho_4,2,1</v>
       </c>
-      <c r="K185" s="23">
-        <f t="shared" si="19"/>
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="186" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+      <c r="K185" s="23"/>
+    </row>
+    <row r="186" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A186" s="20" t="s">
         <v>231</v>
       </c>
@@ -8173,12 +8204,9 @@
         <f t="shared" si="15"/>
         <v>rho_6,2,1</v>
       </c>
-      <c r="K186" s="23">
-        <f t="shared" si="19"/>
-        <v>5.0000000000000002E-5</v>
-      </c>
-    </row>
-    <row r="187" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+      <c r="K186" s="23"/>
+    </row>
+    <row r="187" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A187" s="20" t="s">
         <v>232</v>
       </c>
@@ -8205,12 +8233,9 @@
         <f t="shared" si="15"/>
         <v>rho_1,1,2</v>
       </c>
-      <c r="K187" s="23">
-        <f>K179*0.95</f>
-        <v>1.9E-2</v>
-      </c>
-    </row>
-    <row r="188" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+      <c r="K187" s="23"/>
+    </row>
+    <row r="188" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A188" s="20" t="s">
         <v>232</v>
       </c>
@@ -8237,12 +8262,9 @@
         <f t="shared" si="15"/>
         <v>rho_3,1,2</v>
       </c>
-      <c r="K188" s="23">
-        <f t="shared" ref="K188:K194" si="20">K180*0.95</f>
-        <v>9.4999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="189" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+      <c r="K188" s="23"/>
+    </row>
+    <row r="189" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A189" s="20" t="s">
         <v>232</v>
       </c>
@@ -8269,12 +8291,9 @@
         <f t="shared" si="15"/>
         <v>rho_4,1,2</v>
       </c>
-      <c r="K189" s="23">
-        <f t="shared" si="20"/>
-        <v>9.4999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="190" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+      <c r="K189" s="23"/>
+    </row>
+    <row r="190" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A190" s="20" t="s">
         <v>232</v>
       </c>
@@ -8301,12 +8320,9 @@
         <f t="shared" si="15"/>
         <v>rho_6,1,2</v>
       </c>
-      <c r="K190" s="23">
-        <f t="shared" si="20"/>
-        <v>4.7499999999999999E-3</v>
-      </c>
-    </row>
-    <row r="191" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+      <c r="K190" s="23"/>
+    </row>
+    <row r="191" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A191" s="20" t="s">
         <v>233</v>
       </c>
@@ -8333,12 +8349,9 @@
         <f t="shared" si="15"/>
         <v>rho_1,2,2</v>
       </c>
-      <c r="K191" s="23">
-        <f t="shared" si="20"/>
-        <v>1.9000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="192" spans="1:15" ht="31.5" x14ac:dyDescent="0.45">
+      <c r="K191" s="23"/>
+    </row>
+    <row r="192" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A192" s="20" t="s">
         <v>233</v>
       </c>
@@ -8365,12 +8378,9 @@
         <f t="shared" si="15"/>
         <v>rho_3,2,2</v>
       </c>
-      <c r="K192" s="23">
-        <f t="shared" si="20"/>
-        <v>9.5000000000000005E-5</v>
-      </c>
-    </row>
-    <row r="193" spans="1:11" ht="31.5" x14ac:dyDescent="0.45">
+      <c r="K192" s="23"/>
+    </row>
+    <row r="193" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A193" s="20" t="s">
         <v>233</v>
       </c>
@@ -8397,12 +8407,9 @@
         <f t="shared" si="15"/>
         <v>rho_4,2,2</v>
       </c>
-      <c r="K193" s="23">
-        <f t="shared" si="20"/>
-        <v>9.5000000000000005E-5</v>
-      </c>
-    </row>
-    <row r="194" spans="1:11" ht="31.5" x14ac:dyDescent="0.45">
+      <c r="K193" s="23"/>
+    </row>
+    <row r="194" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A194" s="20" t="s">
         <v>233</v>
       </c>
@@ -8426,16 +8433,13 @@
         <v>2</v>
       </c>
       <c r="J194" s="9" t="str">
-        <f t="shared" ref="J194" si="21">CONCATENATE(C194, "_", E194, IF(E194&lt;&gt;"",",",""), F194, IF(F194&lt;&gt;"",",",""),  G194, IF(G194&lt;&gt;"",",",""),  H194, IF(I194&lt;&gt;"","(",""), I194, IF(I194&lt;&gt;"",")",""))</f>
+        <f t="shared" ref="J194" si="19">CONCATENATE(C194, "_", E194, IF(E194&lt;&gt;"",",",""), F194, IF(F194&lt;&gt;"",",",""),  G194, IF(G194&lt;&gt;"",",",""),  H194, IF(I194&lt;&gt;"","(",""), I194, IF(I194&lt;&gt;"",")",""))</f>
         <v>rho_6,2,2</v>
       </c>
-      <c r="K194" s="23">
-        <f t="shared" si="20"/>
-        <v>4.7500000000000003E-5</v>
-      </c>
+      <c r="K194" s="23"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O194">
+  <sortState ref="A2:O194">
     <sortCondition ref="D2:D194"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8448,25 +8452,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C936F566-E80E-414B-9865-88FE42A54FD2}">
   <dimension ref="A1:Q194"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="151" zoomScaleNormal="151" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
-    </sheetView>
+    <sheetView zoomScale="151" zoomScaleNormal="151" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="52.1328125" customWidth="1"/>
+    <col min="1" max="1" width="52.1640625" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" style="9" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="9" hidden="1" customWidth="1"/>
     <col min="4" max="5" width="15" style="9" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="26" style="9" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="22.33203125" style="9" customWidth="1"/>
     <col min="8" max="13" width="22.33203125" style="9" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="17.46484375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="17.796875" style="1" customWidth="1"/>
-    <col min="16" max="17" width="20.46484375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5" style="1" customWidth="1"/>
+    <col min="15" max="15" width="17.83203125" style="1" customWidth="1"/>
+    <col min="16" max="17" width="20.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
         <v>276</v>
       </c>
@@ -8519,7 +8521,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="str">
         <f t="shared" ref="A2:A33" si="0">CONCATENATE("Population in TB compartment ",VLOOKUP(C2,TB_SET,2), " with ", VLOOKUP(D2,R_SET,2), " in HIV compartment ", VLOOKUP(E2,HIV_SET,2), " and ", VLOOKUP(F2, G_SET,2))</f>
         <v>Population in TB compartment  Uninfected, not on IPT with Drug-susceptible (DS) in HIV compartment  HIV-negative and Male</v>
@@ -8572,7 +8574,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Uninfected, not on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Male</v>
@@ -8625,7 +8627,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Uninfected, on IPT with Drug-susceptible (DS) in HIV compartment  HIV-negative and Male</v>
@@ -8678,7 +8680,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Uninfected, not on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -8731,7 +8733,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with Drug-susceptible (DS) in HIV compartment  HIV-negative and Male</v>
@@ -8784,7 +8786,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Male</v>
@@ -8837,7 +8839,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, infected remotely with Drug-susceptible (DS) in HIV compartment  HIV-negative and Male</v>
@@ -8890,7 +8892,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, infected remotely with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Male</v>
@@ -8943,7 +8945,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, on IPT with Drug-susceptible (DS) in HIV compartment  HIV-negative and Male</v>
@@ -8996,7 +8998,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Male</v>
@@ -9049,7 +9051,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Active with Drug-susceptible (DS) in HIV compartment  HIV-negative and Male</v>
@@ -9102,7 +9104,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Active with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Male</v>
@@ -9155,7 +9157,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Recovered/Treated with Drug-susceptible (DS) in HIV compartment  HIV-negative and Male</v>
@@ -9208,7 +9210,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Recovered/Treated with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Male</v>
@@ -9261,7 +9263,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, after IPT with Drug-susceptible (DS) in HIV compartment  HIV-negative and Male</v>
@@ -9314,7 +9316,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, after IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Male</v>
@@ -9367,7 +9369,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Uninfected, not on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -9420,7 +9422,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Uninfected, not on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -9473,7 +9475,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Uninfected, on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -9526,7 +9528,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Uninfected, not on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Male</v>
@@ -9579,7 +9581,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -9632,7 +9634,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -9685,7 +9687,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, infected remotely with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -9738,7 +9740,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, infected remotely with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -9791,7 +9793,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -9844,7 +9846,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -9897,7 +9899,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Active with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -9950,7 +9952,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Active with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -10003,7 +10005,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Recovered/Treated with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -10056,7 +10058,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  Recovered/Treated with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -10109,7 +10111,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, after IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -10162,7 +10164,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Population in TB compartment  LTBI, after IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -10215,7 +10217,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="str">
         <f t="shared" ref="A34:A65" si="4">CONCATENATE("Population in TB compartment ",VLOOKUP(C34,TB_SET,2), " with ", VLOOKUP(D34,R_SET,2), " in HIV compartment ", VLOOKUP(E34,HIV_SET,2), " and ", VLOOKUP(F34, G_SET,2))</f>
         <v>Population in TB compartment  Uninfected, not on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -10268,7 +10270,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Uninfected, not on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Female</v>
@@ -10321,7 +10323,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Uninfected, on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -10374,7 +10376,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Uninfected, not on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -10427,7 +10429,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -10480,7 +10482,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -10533,7 +10535,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, infected remotely with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -10586,7 +10588,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, infected remotely with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -10639,7 +10641,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -10692,7 +10694,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -10745,7 +10747,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Active with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -10798,7 +10800,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Active with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -10851,7 +10853,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Recovered/Treated with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -10904,7 +10906,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Recovered/Treated with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -10957,7 +10959,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, after IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -11010,7 +11012,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, after IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -11063,7 +11065,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Uninfected, not on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Male</v>
@@ -11116,7 +11118,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Uninfected, not on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -11169,7 +11171,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Uninfected, on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Male</v>
@@ -11222,7 +11224,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Uninfected, not on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Female</v>
@@ -11275,7 +11277,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Male</v>
@@ -11328,7 +11330,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Male</v>
@@ -11381,7 +11383,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, infected remotely with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Male</v>
@@ -11434,7 +11436,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, infected remotely with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Male</v>
@@ -11487,7 +11489,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Male</v>
@@ -11540,7 +11542,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Male</v>
@@ -11593,7 +11595,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="60" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Active with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Male</v>
@@ -11646,7 +11648,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Active with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Male</v>
@@ -11699,7 +11701,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Recovered/Treated with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Male</v>
@@ -11752,7 +11754,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  Recovered/Treated with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Male</v>
@@ -11805,7 +11807,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, after IPT with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Male</v>
@@ -11858,7 +11860,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Population in TB compartment  LTBI, after IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Male</v>
@@ -11911,7 +11913,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="str">
         <f t="shared" ref="A66:A97" si="6">CONCATENATE("Population in TB compartment ",VLOOKUP(C66,TB_SET,2), " with ", VLOOKUP(D66,R_SET,2), " in HIV compartment ", VLOOKUP(E66,HIV_SET,2), " and ", VLOOKUP(F66, G_SET,2))</f>
         <v>Population in TB compartment  Uninfected, not on IPT with Drug-susceptible (DS) in HIV compartment  HIV-negative and Female</v>
@@ -11964,7 +11966,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Uninfected, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Male</v>
@@ -12017,7 +12019,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Uninfected, on IPT with Drug-susceptible (DS) in HIV compartment  HIV-negative and Female</v>
@@ -12070,7 +12072,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Uninfected, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Male</v>
@@ -12123,7 +12125,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with Drug-susceptible (DS) in HIV compartment  HIV-negative and Female</v>
@@ -12176,7 +12178,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Female</v>
@@ -12229,7 +12231,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, infected remotely with Drug-susceptible (DS) in HIV compartment  HIV-negative and Female</v>
@@ -12282,7 +12284,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="73" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, infected remotely with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Female</v>
@@ -12335,7 +12337,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="74" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, on IPT with Drug-susceptible (DS) in HIV compartment  HIV-negative and Female</v>
@@ -12388,7 +12390,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Female</v>
@@ -12441,7 +12443,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Active with Drug-susceptible (DS) in HIV compartment  HIV-negative and Female</v>
@@ -12494,7 +12496,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="77" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Active with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Female</v>
@@ -12547,7 +12549,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="78" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Recovered/Treated with Drug-susceptible (DS) in HIV compartment  HIV-negative and Female</v>
@@ -12600,7 +12602,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="79" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Recovered/Treated with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Female</v>
@@ -12653,7 +12655,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="80" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, after IPT with Drug-susceptible (DS) in HIV compartment  HIV-negative and Female</v>
@@ -12706,7 +12708,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="81" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, after IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Female</v>
@@ -12759,7 +12761,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="82" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Uninfected, not on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -12812,7 +12814,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="83" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Uninfected, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Male</v>
@@ -12865,7 +12867,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="84" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Uninfected, on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -12918,7 +12920,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="85" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Uninfected, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Male</v>
@@ -12971,7 +12973,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="86" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -13024,7 +13026,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="87" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -13077,7 +13079,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="88" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, infected remotely with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -13130,7 +13132,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="89" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, infected remotely with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -13183,7 +13185,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="90" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -13236,7 +13238,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="91" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -13289,7 +13291,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="92" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Active with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -13342,7 +13344,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="93" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Active with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -13395,7 +13397,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="94" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Recovered/Treated with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -13448,7 +13450,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="95" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  Recovered/Treated with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -13501,7 +13503,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="96" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, after IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -13554,7 +13556,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="97" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Population in TB compartment  LTBI, after IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -13607,7 +13609,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="98" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="str">
         <f t="shared" ref="A98:A129" si="10">CONCATENATE("Population in TB compartment ",VLOOKUP(C98,TB_SET,2), " with ", VLOOKUP(D98,R_SET,2), " in HIV compartment ", VLOOKUP(E98,HIV_SET,2), " and ", VLOOKUP(F98, G_SET,2))</f>
         <v>Population in TB compartment  Uninfected, not on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -13660,7 +13662,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="99" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="str">
         <f t="shared" si="10"/>
         <v>Population in TB compartment  Uninfected, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  HIV-negative and Female</v>
@@ -13713,7 +13715,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="100" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="str">
         <f t="shared" si="10"/>
         <v>Population in TB compartment  Uninfected, on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -13766,7 +13768,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="101" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="str">
         <f t="shared" si="10"/>
         <v>Population in TB compartment  Uninfected, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4&gt;200 and Female</v>
@@ -13819,7 +13821,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="102" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="str">
         <f t="shared" si="10"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -13872,7 +13874,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="103" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="str">
         <f t="shared" si="10"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -13925,7 +13927,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="104" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="str">
         <f t="shared" si="10"/>
         <v>Population in TB compartment  LTBI, infected remotely with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -13978,7 +13980,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="105" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="str">
         <f t="shared" si="10"/>
         <v>Population in TB compartment  LTBI, infected remotely with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -14031,7 +14033,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="106" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="str">
         <f t="shared" si="10"/>
         <v>Population in TB compartment  LTBI, on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -14084,7 +14086,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="107" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="str">
         <f t="shared" si="10"/>
         <v>Population in TB compartment  LTBI, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -14137,7 +14139,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="108" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="str">
         <f t="shared" si="10"/>
         <v>Population in TB compartment  Active with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -14190,7 +14192,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="109" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="str">
         <f t="shared" si="10"/>
         <v>Population in TB compartment  Active with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -14243,7 +14245,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="110" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="str">
         <f t="shared" si="10"/>
         <v>Population in TB compartment  Recovered/Treated with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -14296,7 +14298,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="111" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="str">
         <f t="shared" si="10"/>
         <v>Population in TB compartment  Recovered/Treated with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -14349,7 +14351,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="112" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="str">
         <f t="shared" si="10"/>
         <v>Population in TB compartment  LTBI, after IPT with Drug-susceptible (DS) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -14402,7 +14404,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="113" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="str">
         <f t="shared" si="10"/>
         <v>Population in TB compartment  LTBI, after IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -14455,7 +14457,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="114" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="str">
         <f t="shared" si="10"/>
         <v>Population in TB compartment  Uninfected, not on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Female</v>
@@ -14508,7 +14510,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="115" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="str">
         <f t="shared" si="10"/>
         <v>Population in TB compartment  Uninfected, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV not on ART, CD4≤200 and Female</v>
@@ -14561,7 +14563,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="116" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="str">
         <f t="shared" si="10"/>
         <v>Population in TB compartment  Uninfected, on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Female</v>
@@ -14614,7 +14616,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="117" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="str">
         <f t="shared" si="10"/>
         <v>Population in TB compartment  Uninfected, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Female</v>
@@ -14667,7 +14669,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="118" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="str">
         <f t="shared" si="10"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Female</v>
@@ -14720,7 +14722,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="119" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="str">
         <f t="shared" si="10"/>
         <v>Population in TB compartment  LTBI, infected recently (at risk for rapid progression) with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Female</v>
@@ -14773,7 +14775,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="120" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="str">
         <f t="shared" si="10"/>
         <v>Population in TB compartment  LTBI, infected remotely with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Female</v>
@@ -14826,7 +14828,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="121" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="str">
         <f t="shared" si="10"/>
         <v>Population in TB compartment  LTBI, infected remotely with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Female</v>
@@ -14879,7 +14881,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="122" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="str">
         <f t="shared" si="10"/>
         <v>Population in TB compartment  LTBI, on IPT with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Female</v>
@@ -14932,7 +14934,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="123" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="str">
         <f t="shared" si="10"/>
         <v>Population in TB compartment  LTBI, on IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Female</v>
@@ -14985,7 +14987,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="124" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="str">
         <f t="shared" si="10"/>
         <v>Population in TB compartment  Active with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Female</v>
@@ -15038,7 +15040,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="125" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="str">
         <f t="shared" si="10"/>
         <v>Population in TB compartment  Active with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Female</v>
@@ -15091,7 +15093,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="126" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="str">
         <f t="shared" si="10"/>
         <v>Population in TB compartment  Recovered/Treated with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Female</v>
@@ -15144,7 +15146,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="127" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="str">
         <f t="shared" si="10"/>
         <v>Population in TB compartment  Recovered/Treated with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Female</v>
@@ -15197,7 +15199,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="128" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="str">
         <f t="shared" si="10"/>
         <v>Population in TB compartment  LTBI, after IPT with Drug-susceptible (DS) in HIV compartment  PLHIV and on ART and Female</v>
@@ -15250,7 +15252,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="129" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="str">
         <f t="shared" si="10"/>
         <v>Population in TB compartment  LTBI, after IPT with  Multidrug-resistant (MDR-TB) in HIV compartment  PLHIV and on ART and Female</v>
@@ -15303,264 +15305,264 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B131" s="8"/>
       <c r="C131" s="8"/>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B132" s="8"/>
       <c r="C132" s="8"/>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B133" s="8"/>
       <c r="C133" s="8"/>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B134" s="8"/>
       <c r="C134" s="8"/>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B135" s="8"/>
       <c r="C135" s="8"/>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B136" s="8"/>
       <c r="C136" s="8"/>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B137" s="8"/>
       <c r="C137" s="8"/>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B138" s="8"/>
       <c r="C138" s="8"/>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B139" s="8"/>
       <c r="C139" s="8"/>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B140" s="8"/>
       <c r="C140" s="8"/>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B141" s="8"/>
       <c r="C141" s="8"/>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B142" s="8"/>
       <c r="C142" s="8"/>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B143" s="8"/>
       <c r="C143" s="8"/>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B144" s="8"/>
       <c r="C144" s="8"/>
     </row>
-    <row r="145" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="145" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B145" s="8"/>
       <c r="C145" s="8"/>
     </row>
-    <row r="146" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="146" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B146" s="8"/>
       <c r="C146" s="8"/>
     </row>
-    <row r="147" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="147" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B147" s="8"/>
       <c r="C147" s="8"/>
     </row>
-    <row r="148" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="148" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B148" s="8"/>
       <c r="C148" s="8"/>
     </row>
-    <row r="149" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="149" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B149" s="8"/>
       <c r="C149" s="8"/>
     </row>
-    <row r="150" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="150" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B150" s="8"/>
       <c r="C150" s="8"/>
     </row>
-    <row r="151" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="151" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B151" s="8"/>
       <c r="C151" s="8"/>
     </row>
-    <row r="152" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="152" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B152" s="8"/>
       <c r="C152" s="8"/>
     </row>
-    <row r="153" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="153" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B153" s="8"/>
       <c r="C153" s="8"/>
     </row>
-    <row r="154" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="154" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B154" s="8"/>
       <c r="C154" s="8"/>
     </row>
-    <row r="155" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="155" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B155" s="8"/>
       <c r="C155" s="8"/>
     </row>
-    <row r="156" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="156" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B156" s="8"/>
       <c r="C156" s="8"/>
     </row>
-    <row r="157" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="157" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B157" s="8"/>
       <c r="C157" s="8"/>
     </row>
-    <row r="158" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="158" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B158" s="8"/>
       <c r="C158" s="8"/>
     </row>
-    <row r="159" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="159" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B159" s="8"/>
       <c r="C159" s="8"/>
     </row>
-    <row r="160" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="160" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B160" s="8"/>
       <c r="C160" s="8"/>
     </row>
-    <row r="161" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="161" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B161" s="8"/>
       <c r="C161" s="8"/>
     </row>
-    <row r="162" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="162" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B162" s="8"/>
       <c r="C162" s="8"/>
     </row>
-    <row r="163" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="163" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B163" s="8"/>
       <c r="C163" s="8"/>
     </row>
-    <row r="164" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="164" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B164" s="8"/>
       <c r="C164" s="8"/>
     </row>
-    <row r="165" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="165" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B165" s="8"/>
       <c r="C165" s="8"/>
     </row>
-    <row r="166" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="166" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B166" s="8"/>
       <c r="C166" s="8"/>
     </row>
-    <row r="167" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="167" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B167" s="8"/>
       <c r="C167" s="8"/>
     </row>
-    <row r="168" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="168" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B168" s="8"/>
       <c r="C168" s="8"/>
     </row>
-    <row r="169" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="169" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B169" s="8"/>
       <c r="C169" s="8"/>
     </row>
-    <row r="170" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="170" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B170" s="8"/>
       <c r="C170" s="8"/>
     </row>
-    <row r="171" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="171" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B171" s="8"/>
       <c r="C171" s="8"/>
     </row>
-    <row r="172" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="172" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B172" s="8"/>
       <c r="C172" s="8"/>
     </row>
-    <row r="173" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="173" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B173" s="8"/>
       <c r="C173" s="8"/>
     </row>
-    <row r="174" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="174" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B174" s="8"/>
       <c r="C174" s="8"/>
     </row>
-    <row r="175" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="175" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B175" s="8"/>
       <c r="C175" s="8"/>
     </row>
-    <row r="176" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="176" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B176" s="8"/>
       <c r="C176" s="8"/>
     </row>
-    <row r="177" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="177" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B177" s="8"/>
       <c r="C177" s="8"/>
     </row>
-    <row r="178" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="178" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B178" s="8"/>
       <c r="C178" s="8"/>
     </row>
-    <row r="179" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="179" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B179" s="8"/>
       <c r="C179" s="8"/>
     </row>
-    <row r="180" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="180" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B180" s="8"/>
       <c r="C180" s="8"/>
     </row>
-    <row r="181" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="181" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B181" s="8"/>
       <c r="C181" s="8"/>
     </row>
-    <row r="182" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="182" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B182" s="8"/>
       <c r="C182" s="8"/>
     </row>
-    <row r="183" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="183" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B183" s="8"/>
       <c r="C183" s="8"/>
     </row>
-    <row r="184" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="184" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B184" s="8"/>
       <c r="C184" s="8"/>
     </row>
-    <row r="185" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="185" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B185" s="8"/>
       <c r="C185" s="8"/>
     </row>
-    <row r="187" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="187" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B187" s="8"/>
       <c r="C187" s="8"/>
     </row>
-    <row r="188" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="188" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B188" s="8"/>
       <c r="C188" s="8"/>
     </row>
-    <row r="189" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="189" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B189" s="8"/>
       <c r="C189" s="8"/>
     </row>
-    <row r="190" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="190" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B190" s="8"/>
       <c r="C190" s="8"/>
     </row>
-    <row r="191" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="191" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B191" s="8"/>
       <c r="C191" s="8"/>
     </row>
-    <row r="192" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="192" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B192" s="8"/>
       <c r="C192" s="8"/>
     </row>
-    <row r="193" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="193" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B193" s="8"/>
       <c r="C193" s="8"/>
     </row>
-    <row r="194" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="194" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B194" s="8"/>
       <c r="C194" s="8"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q129">
+  <sortState ref="A2:Q129">
     <sortCondition ref="F2:F129"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15569,28 +15571,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFD4AF83-5BDA-B246-9A8F-C4F47C31E1D4}">
-  <dimension ref="A1:I106"/>
+  <dimension ref="A1:I107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.46484375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.796875" style="1" customWidth="1"/>
-    <col min="5" max="6" width="20.46484375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="29.46484375" customWidth="1"/>
-    <col min="8" max="8" width="15.46484375" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="8.796875" style="4"/>
+    <col min="3" max="3" width="17.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="20.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="29.5" customWidth="1"/>
+    <col min="8" max="8" width="15.5" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -15616,7 +15618,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
         <v>237</v>
       </c>
@@ -15627,7 +15629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
         <v>239</v>
       </c>
@@ -15638,7 +15640,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
         <v>241</v>
       </c>
@@ -15649,7 +15651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
         <v>243</v>
       </c>
@@ -15660,7 +15662,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
         <v>243</v>
       </c>
@@ -15671,7 +15673,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
         <v>243</v>
       </c>
@@ -15682,7 +15684,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
         <v>243</v>
       </c>
@@ -15693,7 +15695,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
         <v>248</v>
       </c>
@@ -15707,7 +15709,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
         <v>277</v>
       </c>
@@ -15715,7 +15717,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="33" t="s">
         <v>339</v>
       </c>
@@ -15724,7 +15726,7 @@
         <v>0.17999999999999994</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="33" t="s">
         <v>340</v>
       </c>
@@ -15736,7 +15738,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="33" t="s">
         <v>341</v>
       </c>
@@ -15744,7 +15746,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="33" t="s">
         <v>342</v>
       </c>
@@ -15755,7 +15757,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="33" t="s">
         <v>343</v>
       </c>
@@ -15763,7 +15765,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="33" t="s">
         <v>344</v>
       </c>
@@ -15777,7 +15779,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="33" t="s">
         <v>345</v>
       </c>
@@ -15788,7 +15790,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="33" t="s">
         <v>346</v>
       </c>
@@ -15799,7 +15801,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="33" t="s">
         <v>347</v>
       </c>
@@ -15807,7 +15809,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="33" t="s">
         <v>356</v>
       </c>
@@ -15815,7 +15817,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="33" t="s">
         <v>353</v>
       </c>
@@ -15826,7 +15828,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="33" t="s">
         <v>354</v>
       </c>
@@ -15834,7 +15836,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="33" t="s">
         <v>351</v>
       </c>
@@ -15843,7 +15845,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="33" t="s">
         <v>355</v>
       </c>
@@ -15852,7 +15854,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="33" t="s">
         <v>349</v>
       </c>
@@ -15860,7 +15862,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="33" t="s">
         <v>350</v>
       </c>
@@ -15868,7 +15870,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="27" t="s">
         <v>278</v>
       </c>
@@ -15894,7 +15896,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="27" t="s">
         <v>282</v>
       </c>
@@ -15917,7 +15919,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="27" t="s">
         <v>288</v>
       </c>
@@ -15940,7 +15942,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="27" t="s">
         <v>288</v>
       </c>
@@ -15963,7 +15965,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A31" s="27" t="s">
         <v>283</v>
       </c>
@@ -15986,7 +15988,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A32" s="27" t="s">
         <v>285</v>
       </c>
@@ -16009,7 +16011,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A33" s="27" t="s">
         <v>286</v>
       </c>
@@ -16032,7 +16034,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A34" s="27" t="s">
         <v>287</v>
       </c>
@@ -16055,7 +16057,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A35" s="27" t="s">
         <v>291</v>
       </c>
@@ -16078,7 +16080,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" s="27" t="s">
         <v>292</v>
       </c>
@@ -16101,7 +16103,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A37" s="27" t="s">
         <v>294</v>
       </c>
@@ -16124,7 +16126,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A38" s="27" t="s">
         <v>295</v>
       </c>
@@ -16147,7 +16149,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A39" s="27" t="s">
         <v>297</v>
       </c>
@@ -16170,7 +16172,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="27" t="s">
         <v>307</v>
       </c>
@@ -16193,7 +16195,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A41" s="27" t="s">
         <v>299</v>
       </c>
@@ -16216,7 +16218,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A42" s="27" t="s">
         <v>301</v>
       </c>
@@ -16239,7 +16241,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A43" s="27" t="s">
         <v>300</v>
       </c>
@@ -16262,7 +16264,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A44" s="27" t="s">
         <v>308</v>
       </c>
@@ -16285,7 +16287,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A45" s="27" t="s">
         <v>302</v>
       </c>
@@ -16308,7 +16310,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A46" s="27" t="s">
         <v>309</v>
       </c>
@@ -16331,190 +16333,250 @@
         <v>306</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A47" s="18"/>
-    </row>
-    <row r="48" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A48" s="18"/>
-    </row>
-    <row r="49" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A49" s="18"/>
-    </row>
-    <row r="50" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A50" s="18"/>
-    </row>
-    <row r="51" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A51" s="18"/>
-    </row>
-    <row r="52" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="34" t="s">
+        <v>358</v>
+      </c>
+      <c r="C47">
+        <f>985592/46355083</f>
+        <v>2.1261789133243489E-2</v>
+      </c>
+      <c r="G47" t="s">
+        <v>359</v>
+      </c>
+      <c r="H47" s="35" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A48" s="34" t="s">
+        <v>368</v>
+      </c>
+      <c r="C48" s="1">
+        <f>C47*(1-AVERAGE((114/1000),(91.7/1000)))</f>
+        <v>1.9075014120889397E-2</v>
+      </c>
+      <c r="H48" s="35"/>
+    </row>
+    <row r="49" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A49" s="34" t="s">
+        <v>363</v>
+      </c>
+      <c r="C49" s="1">
+        <f>C48*(1-AVERAGE((39/1000),(37.9/1000)))</f>
+        <v>1.8341579827941198E-2</v>
+      </c>
+      <c r="G49" t="s">
+        <v>361</v>
+      </c>
+      <c r="H49" s="35" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A50" s="34" t="s">
+        <v>364</v>
+      </c>
+      <c r="C50" s="1">
+        <f>C49*(1-AVERAGE((7.1/1000),(6.4/1000)))</f>
+        <v>1.8217774164102595E-2</v>
+      </c>
+      <c r="G50" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A51" s="34" t="s">
+        <v>365</v>
+      </c>
+      <c r="C51" s="1">
+        <f>C50*(1-AVERAGE((1.5/1000),(1.5/1000)))</f>
+        <v>1.8190447502856442E-2</v>
+      </c>
+      <c r="G51" t="s">
+        <v>366</v>
+      </c>
+      <c r="H51" s="35" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="18"/>
     </row>
-    <row r="53" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="18"/>
     </row>
-    <row r="54" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="18"/>
     </row>
-    <row r="55" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="18"/>
     </row>
-    <row r="56" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="18"/>
     </row>
-    <row r="57" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="18"/>
     </row>
-    <row r="58" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="18"/>
     </row>
-    <row r="59" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="18"/>
     </row>
-    <row r="60" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="18"/>
     </row>
-    <row r="61" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="18"/>
     </row>
-    <row r="62" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="18"/>
     </row>
-    <row r="63" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="18"/>
     </row>
-    <row r="64" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="18"/>
     </row>
-    <row r="65" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="18"/>
     </row>
-    <row r="66" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="18"/>
     </row>
-    <row r="67" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="18"/>
     </row>
-    <row r="68" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="18"/>
     </row>
-    <row r="69" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="18"/>
     </row>
-    <row r="70" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="18"/>
     </row>
-    <row r="71" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="18"/>
     </row>
-    <row r="72" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="18"/>
     </row>
-    <row r="73" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="18"/>
     </row>
-    <row r="74" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="18"/>
     </row>
-    <row r="75" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="18"/>
     </row>
-    <row r="76" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="18"/>
     </row>
-    <row r="77" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="18"/>
     </row>
-    <row r="78" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="18"/>
     </row>
-    <row r="79" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="18"/>
     </row>
-    <row r="80" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="18"/>
     </row>
-    <row r="81" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="18"/>
     </row>
-    <row r="82" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="18"/>
     </row>
-    <row r="83" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="18"/>
     </row>
-    <row r="84" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="18"/>
     </row>
-    <row r="85" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="18"/>
     </row>
-    <row r="86" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="18"/>
     </row>
-    <row r="87" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="18"/>
     </row>
-    <row r="88" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="18"/>
     </row>
-    <row r="89" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="18"/>
     </row>
-    <row r="90" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="18"/>
     </row>
-    <row r="91" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="18"/>
     </row>
-    <row r="92" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="18"/>
     </row>
-    <row r="93" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="18"/>
     </row>
-    <row r="94" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="18"/>
     </row>
-    <row r="95" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="18"/>
     </row>
-    <row r="96" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="18"/>
     </row>
-    <row r="97" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="18"/>
     </row>
-    <row r="98" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="18"/>
     </row>
-    <row r="99" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="18"/>
     </row>
-    <row r="100" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="18"/>
     </row>
-    <row r="101" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="18"/>
     </row>
-    <row r="102" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="18"/>
     </row>
-    <row r="103" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="18"/>
     </row>
-    <row r="104" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="18"/>
     </row>
-    <row r="105" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="18"/>
     </row>
-    <row r="106" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="18"/>
     </row>
+    <row r="107" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A107" s="18"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H51" r:id="rId1" display="https://www.ncbi.nlm.nih.gov/pubmed/25377332" xr:uid="{4705AC49-1F67-5B47-9FD5-BFE2C68AD84C}"/>
+    <hyperlink ref="H49" r:id="rId2" xr:uid="{9F3E8754-39BE-544A-90F2-166CDA0B2BEA}"/>
+    <hyperlink ref="H47" r:id="rId3" xr:uid="{856590C8-52C3-054F-894B-DC6DFD17A0CB}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -16522,18 +16584,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{671DF29D-67D9-D34A-A7ED-4F0CE46E869F}">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.46484375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -16541,7 +16603,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -16549,7 +16611,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -16557,7 +16619,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -16565,7 +16627,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -16573,7 +16635,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -16581,7 +16643,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -16589,7 +16651,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -16597,12 +16659,12 @@
         <v>258</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
@@ -16610,7 +16672,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
@@ -16618,12 +16680,12 @@
         <v>261</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1</v>
       </c>
@@ -16631,7 +16693,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2</v>
       </c>
@@ -16639,7 +16701,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3</v>
       </c>
@@ -16647,7 +16709,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>4</v>
       </c>
@@ -16655,12 +16717,12 @@
         <v>266</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1</v>
       </c>
@@ -16668,7 +16730,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2</v>
       </c>
@@ -16676,12 +16738,12 @@
         <v>269</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1</v>
       </c>
@@ -16689,7 +16751,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2</v>
       </c>
@@ -16697,7 +16759,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>3</v>
       </c>
